--- a/템플릿/행안부_30억미만.xlsx
+++ b/템플릿/행안부_30억미만.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\템플릿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\06_입찰프로그램개발\company-search-electron\템플릿\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:AT130"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -2481,10 +2481,8 @@
     <col min="12" max="13" width="6.77734375" style="55" customWidth="1"/>
     <col min="14" max="14" width="6.44140625" style="55" customWidth="1"/>
     <col min="15" max="15" width="5.109375" style="55" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" style="55" customWidth="1"/>
-    <col min="17" max="17" width="6.77734375" style="55" customWidth="1"/>
-    <col min="18" max="20" width="6.6640625" style="55" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="55" customWidth="1"/>
+    <col min="16" max="20" width="8.33203125" style="55" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="55" customWidth="1"/>
     <col min="22" max="22" width="9.109375" style="90" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="8" style="55" customWidth="1"/>
     <col min="25" max="27" width="7.21875" style="55" customWidth="1"/>
@@ -2492,13 +2490,14 @@
     <col min="29" max="29" width="9.77734375" style="55" customWidth="1"/>
     <col min="30" max="30" width="8.77734375" style="90" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="6.21875" style="55" customWidth="1"/>
-    <col min="32" max="32" width="7" style="55" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.6640625" style="55" customWidth="1"/>
-    <col min="34" max="34" width="8.21875" style="55" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" style="55" customWidth="1"/>
     <col min="35" max="35" width="8.77734375" style="55" customWidth="1"/>
     <col min="36" max="36" width="7.5546875" style="55" customWidth="1"/>
-    <col min="37" max="38" width="8.33203125" style="55" customWidth="1"/>
-    <col min="39" max="39" width="20.21875" style="55" customWidth="1"/>
+    <col min="37" max="37" width="8.33203125" style="55" customWidth="1"/>
+    <col min="38" max="38" width="12.109375" style="55" customWidth="1"/>
+    <col min="39" max="39" width="22.77734375" style="55" customWidth="1"/>
     <col min="40" max="40" width="8.33203125" style="55" customWidth="1"/>
     <col min="41" max="45" width="15.5546875" style="55" customWidth="1"/>
     <col min="46" max="46" width="17.6640625" style="55" customWidth="1"/>

--- a/템플릿/행안부_30억미만.xlsx
+++ b/템플릿/행안부_30억미만.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\06_입찰프로그램개발\company-search-electron\템플릿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\템플릿\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:AT130"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -2481,8 +2481,10 @@
     <col min="12" max="13" width="6.77734375" style="55" customWidth="1"/>
     <col min="14" max="14" width="6.44140625" style="55" customWidth="1"/>
     <col min="15" max="15" width="5.109375" style="55" customWidth="1"/>
-    <col min="16" max="20" width="8.33203125" style="55" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="55" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="55" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" style="55" customWidth="1"/>
+    <col min="18" max="20" width="6.6640625" style="55" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="55" customWidth="1"/>
     <col min="22" max="22" width="9.109375" style="90" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="8" style="55" customWidth="1"/>
     <col min="25" max="27" width="7.21875" style="55" customWidth="1"/>
@@ -2492,11 +2494,11 @@
     <col min="31" max="31" width="6.21875" style="55" customWidth="1"/>
     <col min="32" max="32" width="8.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.6640625" style="55" customWidth="1"/>
-    <col min="34" max="34" width="11.33203125" style="55" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.77734375" style="55" customWidth="1"/>
     <col min="36" max="36" width="7.5546875" style="55" customWidth="1"/>
     <col min="37" max="37" width="8.33203125" style="55" customWidth="1"/>
-    <col min="38" max="38" width="12.109375" style="55" customWidth="1"/>
+    <col min="38" max="38" width="9.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="22.77734375" style="55" customWidth="1"/>
     <col min="40" max="40" width="8.33203125" style="55" customWidth="1"/>
     <col min="41" max="45" width="15.5546875" style="55" customWidth="1"/>
@@ -2814,9 +2816,7 @@
       <c r="AT4" s="161"/>
     </row>
     <row r="5" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A5" s="111">
-        <v>1</v>
-      </c>
+      <c r="A5" s="111"/>
       <c r="B5" s="93"/>
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
@@ -2904,9 +2904,7 @@
       </c>
     </row>
     <row r="6" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A6" s="88">
-        <v>2</v>
-      </c>
+      <c r="A6" s="88"/>
       <c r="B6" s="93"/>
       <c r="C6" s="95"/>
       <c r="D6" s="95"/>
@@ -2994,9 +2992,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A7" s="111">
-        <v>3</v>
-      </c>
+      <c r="A7" s="111"/>
       <c r="B7" s="93"/>
       <c r="C7" s="95"/>
       <c r="D7" s="94"/>
@@ -3083,9 +3079,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A8" s="111">
-        <v>4</v>
-      </c>
+      <c r="A8" s="111"/>
       <c r="B8" s="93"/>
       <c r="C8" s="95"/>
       <c r="D8" s="95"/>
@@ -3173,9 +3167,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A9" s="111">
-        <v>5</v>
-      </c>
+      <c r="A9" s="111"/>
       <c r="B9" s="93"/>
       <c r="C9" s="95"/>
       <c r="D9" s="94"/>
@@ -3263,9 +3255,7 @@
       </c>
     </row>
     <row r="10" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A10" s="111">
-        <v>6</v>
-      </c>
+      <c r="A10" s="111"/>
       <c r="B10" s="93"/>
       <c r="C10" s="95"/>
       <c r="D10" s="124"/>
@@ -3353,9 +3343,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A11" s="111">
-        <v>7</v>
-      </c>
+      <c r="A11" s="111"/>
       <c r="B11" s="93"/>
       <c r="C11" s="94"/>
       <c r="D11" s="94"/>
@@ -3443,9 +3431,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A12" s="88">
-        <v>8</v>
-      </c>
+      <c r="A12" s="88"/>
       <c r="B12" s="93"/>
       <c r="C12" s="94"/>
       <c r="D12" s="95"/>
@@ -3535,9 +3521,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A13" s="111">
-        <v>9</v>
-      </c>
+      <c r="A13" s="111"/>
       <c r="B13" s="93"/>
       <c r="C13" s="95"/>
       <c r="D13" s="94"/>
@@ -3625,9 +3609,7 @@
       </c>
     </row>
     <row r="14" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A14" s="111">
-        <v>10</v>
-      </c>
+      <c r="A14" s="111"/>
       <c r="B14" s="93"/>
       <c r="C14" s="94"/>
       <c r="D14" s="94"/>

--- a/템플릿/행안부_30억미만.xlsx
+++ b/템플릿/행안부_30억미만.xlsx
@@ -1968,6 +1968,102 @@
     <xf numFmtId="41" fontId="8" fillId="6" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1991,102 +2087,6 @@
     </xf>
     <xf numFmtId="22" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:AT130"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -2483,8 +2483,9 @@
     <col min="15" max="15" width="5.109375" style="55" customWidth="1"/>
     <col min="16" max="16" width="7.109375" style="55" customWidth="1"/>
     <col min="17" max="17" width="6.77734375" style="55" customWidth="1"/>
-    <col min="18" max="20" width="6.6640625" style="55" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="55" customWidth="1"/>
+    <col min="18" max="19" width="6.6640625" style="55" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" style="55" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" style="55" customWidth="1"/>
     <col min="22" max="22" width="9.109375" style="90" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="8" style="55" customWidth="1"/>
     <col min="25" max="27" width="7.21875" style="55" customWidth="1"/>
@@ -2494,87 +2495,87 @@
     <col min="31" max="31" width="6.21875" style="55" customWidth="1"/>
     <col min="32" max="32" width="8.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.6640625" style="55" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.109375" style="55" customWidth="1"/>
     <col min="35" max="35" width="8.77734375" style="55" customWidth="1"/>
     <col min="36" max="36" width="7.5546875" style="55" customWidth="1"/>
     <col min="37" max="37" width="8.33203125" style="55" customWidth="1"/>
     <col min="38" max="38" width="9.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="22.77734375" style="55" customWidth="1"/>
     <col min="40" max="40" width="8.33203125" style="55" customWidth="1"/>
-    <col min="41" max="45" width="15.5546875" style="55" customWidth="1"/>
+    <col min="41" max="45" width="17.33203125" style="55" customWidth="1"/>
     <col min="46" max="46" width="17.6640625" style="55" customWidth="1"/>
     <col min="47" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="33.75" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="149"/>
       <c r="C1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="141"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="155"/>
       <c r="H1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
       <c r="K1" s="92" t="e">
         <f>TRUNC(I1/F2,4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L1" s="68"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
       <c r="AD1" s="106"/>
       <c r="AE1" s="106"/>
       <c r="AF1" s="106"/>
       <c r="AG1" s="106"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="158"/>
+      <c r="AJ1" s="158"/>
       <c r="AK1" s="107"/>
       <c r="AL1" s="107"/>
       <c r="AM1" s="107"/>
       <c r="AN1" s="107"/>
     </row>
     <row r="2" spans="1:46" s="58" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="137"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="128"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="160"/>
       <c r="H2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="130">
+      <c r="I2" s="162">
         <f>D2*0.8</f>
         <v>0</v>
       </c>
-      <c r="J2" s="131"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="21" t="s">
         <v>27</v>
       </c>
@@ -2584,11 +2585,11 @@
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
       <c r="W2" s="52"/>
@@ -2620,96 +2621,96 @@
       <c r="AT2" s="91"/>
     </row>
     <row r="3" spans="1:46" s="60" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="152" t="s">
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="153" t="s">
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="155" t="s">
+      <c r="O3" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="152" t="s">
+      <c r="P3" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="151"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="138"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="152" t="s">
+      <c r="W3" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="151"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="138"/>
       <c r="AD3" s="59"/>
       <c r="AE3" s="59"/>
       <c r="AF3" s="59"/>
       <c r="AG3" s="59"/>
       <c r="AH3" s="71"/>
-      <c r="AI3" s="148" t="s">
+      <c r="AI3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="157" t="s">
+      <c r="AJ3" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="159" t="s">
+      <c r="AK3" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AL3" s="144" t="s">
+      <c r="AL3" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="162" t="s">
+      <c r="AM3" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="AN3" s="164" t="s">
+      <c r="AN3" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="161" t="s">
+      <c r="AO3" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="AP3" s="161" t="s">
+      <c r="AP3" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="161" t="s">
+      <c r="AQ3" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="AR3" s="161" t="s">
+      <c r="AR3" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="AS3" s="161" t="s">
+      <c r="AS3" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AT3" s="161" t="s">
+      <c r="AT3" s="126" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:46" s="60" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A4" s="147"/>
-      <c r="B4" s="149"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="115" t="s">
         <v>13</v>
       </c>
@@ -2743,8 +2744,8 @@
       <c r="M4" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="154"/>
-      <c r="O4" s="156"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="143"/>
       <c r="P4" s="98" t="s">
         <v>13</v>
       </c>
@@ -2802,18 +2803,18 @@
       <c r="AH4" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="158"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="145"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="165"/>
-      <c r="AO4" s="161"/>
-      <c r="AP4" s="161"/>
-      <c r="AQ4" s="161"/>
-      <c r="AR4" s="161"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="161"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="145"/>
+      <c r="AK4" s="147"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="126"/>
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="126"/>
+      <c r="AS4" s="126"/>
+      <c r="AT4" s="126"/>
     </row>
     <row r="5" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
       <c r="A5" s="111"/>
@@ -14714,14 +14715,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:AC1"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -14734,16 +14737,14 @@
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:AC1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/템플릿/행안부_30억미만.xlsx
+++ b/템플릿/행안부_30억미만.xlsx
@@ -1968,6 +1968,111 @@
     <xf numFmtId="41" fontId="8" fillId="6" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1982,111 +2087,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:AT130"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -2474,17 +2474,16 @@
     <col min="1" max="1" width="5" style="55" customWidth="1"/>
     <col min="2" max="2" width="5.109375" style="56" customWidth="1"/>
     <col min="3" max="3" width="9.21875" style="66" customWidth="1"/>
-    <col min="4" max="7" width="9.21875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="55" customWidth="1"/>
+    <col min="6" max="7" width="9.21875" style="55" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="55" customWidth="1"/>
     <col min="9" max="10" width="7.33203125" style="55" customWidth="1"/>
     <col min="11" max="11" width="8.77734375" style="55" customWidth="1"/>
     <col min="12" max="13" width="6.77734375" style="55" customWidth="1"/>
     <col min="14" max="14" width="6.44140625" style="55" customWidth="1"/>
     <col min="15" max="15" width="5.109375" style="55" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" style="55" customWidth="1"/>
-    <col min="17" max="17" width="6.77734375" style="55" customWidth="1"/>
-    <col min="18" max="19" width="6.6640625" style="55" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" style="55" customWidth="1"/>
+    <col min="16" max="20" width="9.33203125" style="55" customWidth="1"/>
     <col min="21" max="21" width="9.88671875" style="55" customWidth="1"/>
     <col min="22" max="22" width="9.109375" style="90" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="8" style="55" customWidth="1"/>
@@ -2508,74 +2507,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="33.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="149"/>
+      <c r="B1" s="135"/>
       <c r="C1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="155"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="141"/>
       <c r="H1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
       <c r="K1" s="92" t="e">
         <f>TRUNC(I1/F2,4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L1" s="68"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="143"/>
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
       <c r="AD1" s="106"/>
       <c r="AE1" s="106"/>
       <c r="AF1" s="106"/>
       <c r="AG1" s="106"/>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="158"/>
-      <c r="AJ1" s="158"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
       <c r="AK1" s="107"/>
       <c r="AL1" s="107"/>
       <c r="AM1" s="107"/>
       <c r="AN1" s="107"/>
     </row>
     <row r="2" spans="1:46" s="58" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="160"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="162">
+      <c r="I2" s="130">
         <f>D2*0.8</f>
         <v>0</v>
       </c>
-      <c r="J2" s="163"/>
+      <c r="J2" s="131"/>
       <c r="K2" s="21" t="s">
         <v>27</v>
       </c>
@@ -2585,11 +2584,11 @@
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
       <c r="W2" s="52"/>
@@ -2621,96 +2620,96 @@
       <c r="AT2" s="91"/>
     </row>
     <row r="3" spans="1:46" s="60" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="140" t="s">
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="142" t="s">
+      <c r="O3" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="139" t="s">
+      <c r="P3" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="138"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="151"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="139" t="s">
+      <c r="W3" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="138"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="151"/>
       <c r="AD3" s="59"/>
       <c r="AE3" s="59"/>
       <c r="AF3" s="59"/>
       <c r="AG3" s="59"/>
       <c r="AH3" s="71"/>
-      <c r="AI3" s="135" t="s">
+      <c r="AI3" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="144" t="s">
+      <c r="AJ3" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="146" t="s">
+      <c r="AK3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="AL3" s="131" t="s">
+      <c r="AL3" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="127" t="s">
+      <c r="AM3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="AN3" s="129" t="s">
+      <c r="AN3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="126" t="s">
+      <c r="AO3" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="AP3" s="126" t="s">
+      <c r="AP3" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="126" t="s">
+      <c r="AQ3" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="AR3" s="126" t="s">
+      <c r="AR3" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="AS3" s="126" t="s">
+      <c r="AS3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="AT3" s="126" t="s">
+      <c r="AT3" s="161" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:46" s="60" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A4" s="134"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="115" t="s">
         <v>13</v>
       </c>
@@ -2744,8 +2743,8 @@
       <c r="M4" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="141"/>
-      <c r="O4" s="143"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="156"/>
       <c r="P4" s="98" t="s">
         <v>13</v>
       </c>
@@ -2803,18 +2802,18 @@
       <c r="AH4" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="145"/>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="128"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="160"/>
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="161"/>
+      <c r="AP4" s="161"/>
+      <c r="AQ4" s="161"/>
+      <c r="AR4" s="161"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="161"/>
     </row>
     <row r="5" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
       <c r="A5" s="111"/>
@@ -14715,16 +14714,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:AC1"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -14737,14 +14734,16 @@
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:AC1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:T2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
